--- a/Data/summaries_only_comparison.xlsx
+++ b/Data/summaries_only_comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,10 +436,15 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>claim</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>summary_GPTOSS</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>summary_GPT5</t>
         </is>
@@ -448,10 +453,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>"Arizona officials caught changing ballots, have been arrested."</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>The claim states that Arizona officials were caught changing ballots and have been arrested. It is a qualitative, absolute assertion about a specific event. The claim provides a clear geographic reference (Arizona) but does not specify when the alleged arrests occurred, nor does it cite any source or methodology, making verification dependent on locating corroborating reports from the relevant time frame.</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>The claim asserts, in absolute terms, that unnamed Arizona officials were caught changing ballots and have been arrested. It is a qualitative statement about a specific alleged legal event. Geography is specified (Arizona), but the time period is not provided. The basis is implied law enforcement or news reporting, yet no source or documentation is cited. Key specifics—who the officials are, how many, when this occurred, and what evidence or charges exist—are missing, which limits checkability.</t>
         </is>
@@ -460,10 +470,15 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>"Arizona officials caught changing ballots, have been arrested."</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>The claim asserts that Arizona election officials were caught changing ballots and have been arrested, referring to Pima County officials in Arizona and events reported in early November 2024. The PolitiFact fact‑check finds the claim false: the reported discrepancy was a clerical reporting error that was corrected within hours, and no officials were arrested or disciplined. Thus the claim is a qualitative, absolute statement that is checkable against official statements and records, which show no arrests occurred.</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Subject: Arizona election officials allegedly changed ballots and were arrested. Type: qualitative legal allegation. Precision: absolute (100%). Basis: social media claims tied to a reported discrepancy in Pima County’s Nov. 8 uncounted ballot reports; the discrepancy arose from a clerical reporting error (pages vs. ballots) and was corrected within hours, per the article. Geography/time: Arizona (Pima County), early Nov. 2024. Uncertainties: the claim does not specify which officials, what actions constituted ‘changing ballots,’ which agency made arrests, or when arrests occurred. The article states no ballots were changed, and no one was arrested or disciplined, indicating the claim’s core assertions are unsupported.</t>
         </is>
@@ -472,10 +487,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>The Yeti snow monster from Disneyland's iconic Matterhorn ride can be found in the queue for the newer Guardians of the Galaxy ride at Disney California Adventure.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>The claim states that the Yeti snow monster from the Matterhorn ride can be found in the queue for the Guardians of the Galaxy ride at Disney California Adventure. It is a qualitative, absolute claim with no cited source or methodology; the geography (Disneyland Resort, California) is clear, but the time period is not specified.</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>The claim asserts that the Yeti/Abominable Snowman from Disneyland’s Matterhorn is located in the queue of the newer Guardians of the Galaxy ride at Disney California Adventure. It is a qualitative, precise existence/location statement. Geography is specified (Disneyland/Disney California Adventure), but no time frame is given (implied near the 2020 publication date) and no source or method is cited; verification would rely on physical observation or official confirmation.</t>
         </is>
@@ -484,10 +504,15 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>The Yeti snow monster from Disneyland's iconic Matterhorn ride can be found in the queue for the newer Guardians of the Galaxy ride at Disney California Adventure.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>The claim states that the Yeti snow monster from Disneyland's Matterhorn ride is hidden in the queue line of the Guardians of the Galaxy ride at Disney California Adventure. This is an absolute, qualitative assertion about a specific location (Anaheim, California) and is presented as current as of the article's publication date (Nov 30, 2020). The article bases the claim on anecdotal observation of an "Easter egg" rather than on official documentation or systematic investigation, leaving methodological details unspecified.</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>The claim states that the Matterhorn ride’s Yeti (Abominable Snowman) appears as an Easter egg in the queue for Guardians of the Galaxy – Mission: Breakout! at Disney California Adventure in Anaheim, CA. This is a qualitative, precise, location-based assertion, checkable via direct observation or official/photographic documentation. Geography is specified; no explicit time frame is given. The article characterizes it as an Easter egg and rates it true, but the claim itself cites no source or method.</t>
         </is>
@@ -496,10 +521,15 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>"I can tell you that the enhanced interrogation techniques that have since been banned by this administration — specifically waterboarding — work."</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>The claim states that waterboarding, an enhanced interrogation technique banned by the administration, works. It is a vague, qualitative assertion with no cited evidence, methodology, geographic scope, or time frame, limiting its checkability.</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Subject: effectiveness of enhanced interrogation techniques, specifically waterboarding. Type: qualitative (not quantitative). Precision: vague (simply says they 'work' without defining outcomes or conditions). Basis: personal assertion/anecdote; no evidence or methodology cited. Geography: not explicitly stated (implied U.S., but unspecified). Time period: not explicitly stated (reference to 'this administration' is vague). Overall, the claim is a broad qualitative assertion lacking clear definitions, evidence, and contextual specifics, which limits checkability.</t>
         </is>
@@ -508,10 +538,15 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>"I can tell you that the enhanced interrogation techniques that have since been banned by this administration — specifically waterboarding — work."</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>The claim asserts that waterboarding, an enhanced interrogation technique, "works" but provides no quantitative measure, location, or timeframe, making it a vague qualitative statement. The PolitiFact article finds no verifiable evidence supporting the assertion, cites expert consensus that waterboarding is ineffective, and rates the claim False.</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Subject: effectiveness of waterboarding (and broader enhanced interrogation techniques) as an intelligence tool in the U.S. context under the Obama administration’s ban. Type: qualitative. Precision: absolute (100%)—states they “work” rather than “can work.” Basis: personal assertion referencing unspecified ‘proven history,’ with no cited data or methodology; article notes no concrete proof provided and references public sources (e.g., Senate report, experts) that dispute general effectiveness claims. Geography: U.S. (present). Time period: not explicitly specified for when/where it ‘works’ (ban noted in 2009, but effectiveness timeframe unclear). Key uncertainties: undefined criteria for “work,” no sourcing or methodological details, and ambiguity whether the claim applies to all EITs or specifically waterboarding.</t>
         </is>
@@ -520,10 +555,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Nigerian election tribunal witness goes on the run</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>The claim states that a witness in the Nigerian election tribunal went on the run. It is a qualitative, absolute assertion about a specific individual, with geography (Nigeria) evident but no explicit time frame or source cited. The lack of methodological detail and missing time period constitute the main checkability gaps.</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Claim: An unnamed witness in a Nigerian election tribunal 'went on the run.' Type: qualitative, event-based. Precision: vague (no identity or specifics). Basis: unspecified news/report; no methodological details. Geography: Nigeria. Time period: not stated (likely near 2023-07-10). Missing subject identity, explicit timing, and sourcing limit checkability.</t>
         </is>
@@ -532,10 +572,15 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Nigerian election tribunal witness goes on the run</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>The claim states that a witness in the Nigerian election tribunal has gone on the run. It is a qualitative assertion about a specific individual and event, with the geography (Nigeria) evident but no explicit time frame or source provided. The referenced fact‑check article contains only an access‑denied notice, offering no information to verify the claim. Consequently, the claim’s checkability is limited due to missing methodological details, source citation, and a clear time period.</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Claim: a witness in a Nigerian election tribunal 'went on the run.' Subject: an unspecified election tribunal witness in Nigeria. Type: qualitative. Precision: vague (no identity, tribunal, or specifics of 'on the run'). Basis: not stated (likely a news/legal report, but none cited). Geography: Nigeria (present). Time period: not provided; article date suggests mid-2023 but not explicit. The linked fact-check article is inaccessible, so missing details could not be confirmed.</t>
         </is>
@@ -544,10 +589,15 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>"We essentially repealed Obamacare because we got rid of the individual mandate ... and that was a primary source of funding of Obamacare."</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>The claim asserts that the United States effectively repealed the Affordable Care Act by eliminating the individual mandate, which it says was a primary source of funding for the law. This is a vague quantitative claim about funding importance, with no cited source or methodology. The geography (U.S.) and approximate time period (around 2017) are implicit, making the claim partially checkable but lacking precise data.</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Subject: the Affordable Care Act (Obamacare) and its individual mandate. Type: mixed—qualitative ("essentially repealed") and vague quantitative ("primary source of funding"). Precision: vague. Basis: unsupported assertion about legislative change and funding structure; no sources or metrics cited. Geography: United States (implied). Time period: not specified (likely contemporaneous with late 2017 events). Missing methodological details and timeframe limit straightforward verification.</t>
         </is>
@@ -556,10 +606,15 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>"We essentially repealed Obamacare because we got rid of the individual mandate ... and that was a primary source of funding of Obamacare."</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>The claim asserts that eliminating the ACA's individual mandate "essentially repealed" Obamacare and that the mandate was a primary source of its funding. It concerns the United States and refers to the period around December 2017. The statement is a political assertion without presented data, making the quantitative part ("primary source of funding") vague and lacking methodological detail, while also containing a qualitative judgment ("essentially repealed").</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Subject: Donald Trump’s statement about the Affordable Care Act (ACA), asserting that zeroing out the individual mandate penalty both ‘essentially repealed’ Obamacare and that the mandate penalty was a ‘primary source of funding.’ Type: Mixed—one qualitative/interpretive claim (‘essentially repealed’) and one comparative quantitative claim (‘primary source of funding’) without numbers. Precision: Vague/absolute phrasing; ‘essentially repealed’ is qualitative and sweeping; ‘primary source’ is a vague quantitative term lacking thresholds. Basis: The Tax Cuts and Jobs Act (Dec 2017) reduced the ACA individual mandate penalty to $0; assessment relies on budget/coverage statistics (e.g., CBO, IRS) and ACA structure. Geography: United States. Time period: December 2017 (statement and policy context). Article context: Reports penalty revenues (~$3B in 2016) versus ACA costs (~$120B in 2017), and larger ACA-related taxes (e.g., on high-income households and insurers), indicating the penalty was a small share; notes that major ACA components remained post-mandate. Uncertainties: Terms ‘essentially repealed’ and ‘funding’ are undefined; the qualitative impact is interpretive; the claim provides no methodological details or quantitative thresholds.</t>
         </is>
@@ -568,10 +623,15 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>President Obama plans to "impose a tax of at least 23 percent on the Medicare prescription drug benefit for low-income beneficiaries."</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>The claim asserts that President Obama intends to impose a tax of at least 23% on the Medicare prescription drug benefit for low-income beneficiaries. It is a quantitative claim but only provides a lower bound, making it vague. No source or methodological basis is given, and the claim does not specify a time frame, though the geography (United States) is implicit. These gaps limit immediate checkability.</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Subject: President Obama’s plan regarding Medicare Part D for low-income beneficiaries. This is a quantitative claim stating a lower-bound figure (“at least 23 percent”), so it is precise (as a threshold). Basis: an asserted policy proposal/plan (no source or methodological detail given on how the 23% ‘tax’ is defined or calculated). Geography: United States (implied by Medicare). Time period: not specified (assumed around late 2011). Missing elements that affect checkability include the exact source of the proposal and methodological details.</t>
         </is>
@@ -580,10 +640,15 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>President Obama plans to "impose a tax of at least 23 percent on the Medicare prescription drug benefit for low-income beneficiaries."</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>The claim states that President Obama planned to impose a tax of at least 23 percent on the Medicare prescription‑drug benefit for low‑income beneficiaries. It is a quantitative claim about a tax rate, but the qualifier "at least" makes the exact figure uncertain, rendering it a vague quantitative assertion. The claim originates from a National Taxpayers Union advertisement citing an Obama administration proposal to require drug‑maker rebates for Medicare Part D low‑income subsidy recipients; the article explains this mechanism is a rebate, not a tax. The claim is specific to the United States and was made in November 2011 (advertisement date) with the fact‑check published shortly after. While the article provides contextual information, it does not cite a direct official source or detailed methodology for the claim.</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Subject: President Obama’s plan for Medicare Part D affecting low-income beneficiaries. Type: Quantitative (percentage). Precision: Numeric lower bound (“at least 23%”). Basis: An advocacy ad’s characterization of a 2011 White House deficit-reduction proposal to require drug manufacturer rebates in Medicare Part D for low-income subsidy beneficiaries, aligning with Medicaid’s minimum rebate (about 23.1%). Geography: United States. Time period: 2011 (proposal/advertisement). Notes: The claim equates manufacturer rebates with a “tax” on beneficiaries without detailing the mechanism, source of the 23% figure, or who directly pays; methodological details are absent in the claim text but described in the article.</t>
         </is>
@@ -592,10 +657,15 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>"Almost half a million people are still eligible , particularly in the Asian-American and Pacific Islander community."</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>The claim states that "almost half a million people are still eligible, particularly in the Asian-American and Pacific Islander community." It is a quantitative claim but uses vague wording ("almost half a million"). The subject (what people are eligible for) is not specified, and no source or methodology is provided. The geography is limited to the Asian-American and Pacific Islander community, but a broader location is not clarified. No time frame is given, though the fact‑check was published on 2016‑08‑22, suggesting the claim is from around that period. These missing details hinder precise verification.</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Quantitative claim stating that almost 500,000 people are still eligible, with emphasis on the Asian-American and Pacific Islander community. The phrasing is vague ('almost half a million') and lacks methodological basis or source. The specific subject of eligibility is unspecified, and no geography or time frame is provided, limiting checkability.</t>
         </is>
@@ -604,10 +674,15 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>"Almost half a million people are still eligible , particularly in the Asian-American and Pacific Islander community."</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>The claim states that "almost half a million people are still eligible, particularly in the Asian-American and Pacific Islander community" for DACA. It is a quantitative claim about the number of eligible individuals in the United States, made in August 2016. The statement is based on unspecified expert estimates; the article cites Migration Policy Institute figures of 1.3‑1.7 million total eligible immigrants and 500 000‑900 000 who could still apply, as well as a White House Initiative estimate of over 130 000 Asian‑descent eligible individuals. While the claim is checkable using these sources, it lacks precise methodological detail and provides only a vague figure, leading to uncertainty about the exact number referred to.</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Subject: number of people still eligible for DACA, with emphasis on Asian-American and Pacific Islander (AAPI) communities. Type: primarily quantitative with a qualitative component. Precision: vague (“almost half a million”). Basis: estimates from the Migration Policy Institute (modeling with DHS/Census data) combined with USCIS application counts; article cites ~1.3–1.7 million eligible, ~820k applications accepted by March 31, 2016, implying ~480k to ~880k still eligible; AAPI groups show lower application rates. Geography: United States. Time period: August 2016. Uncertainties: model-based estimates; ‘particularly’ is qualitative and relative; ‘still eligible’ depends on meeting DACA criteria and current enrollment status.</t>
         </is>
@@ -616,10 +691,15 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Two 'racist' Black teenagers shot and killed a white infant 'for the fun of it.'</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>The claim alleges that two Black teenagers shot and killed a white infant for fun. It is a qualitative, absolute statement about a specific alleged incident, but no source, geographic location, or time frame is provided, making it difficult to verify.</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>A specific event claim alleging two Black teenagers killed a white infant ‘for fun’ and labels them ‘racist.’ It is qualitative but precise in its description. The claim lacks cited basis (e.g., news reports, police/court records), and does not specify geography or time period, leaving key details missing for verification.</t>
         </is>
@@ -628,10 +708,15 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Two 'racist' Black teenagers shot and killed a white infant 'for the fun of it.'</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>The claim alleges that two Black teenagers shot and killed a white infant in Brunswick, Georgia, in March 2013, doing so 'for the fun of it' and because they were 'racist.' The Snopes fact‑check shows the incident was a robbery‑related shooting, with police stating the victims were selected at random and no evidence of racial motive or killing for fun. The claim is a qualitative statement about motive and race; it is checkable using police reports and contemporary news sources, which provide geography (Brunswick, GA) and time period (2013, resurfaced in 2020).</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Subject: an alleged crime and motive—two Black teenagers shot and killed a white infant, characterized as 'racist' and 'for the fun of it.' Type: qualitative. Precision: absolute assertions about motive; specific event details. Basis: unspecified (no cited source or method in the claim itself); the fact-checked article indicates it refers to a 2013 Brunswick, Georgia case. The article confirms two Black teens fatally shot a 13‑month‑old during a robbery attempt, but reports no evidence of racial targeting or that the killing was 'for fun'; police described the victim as randomly selected and the shooting tied to a robbery demand. Missing from the claim: geography, time period, and sourcing/methodology; motive assertions are absolute but unsubstantiated.</t>
         </is>
@@ -640,10 +725,15 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>Says Barack Obama had "huge majorities" in Congress during his first two years in office and "did nothing with them to create jobs in America."</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>The claim asserts that Barack Obama held large majorities in Congress during his first two years (2009‑2011) and that he did nothing with them to create jobs in the United States. It is a quantitative claim about the size of the majorities (described only as “huge”) and about job creation (implying zero jobs), but the terms are vague and no source or methodology is provided, making the claim difficult to verify.</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Subject: Barack Obama. Mixed claim about his first two years in office (circa 2009–2011, U.S.). It includes a vague quantitative assertion (“huge majorities” in Congress) and an absolute (100%) qualitative assertion (“did nothing to create jobs in America”). No source or methodology is cited; verification would require official congressional seat counts, legislative/action records, and employment data. Geography: United States; time period: first two years of Obama’s presidency. Active alerts: vague quantitative claim, qualitative/absolute language, and absent methodological details.</t>
         </is>
@@ -652,10 +742,15 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Says Barack Obama had "huge majorities" in Congress during his first two years in office and "did nothing with them to create jobs in America."</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>The claim, made by Chris Christie, asserts that during Barack Obama’s first two years in office (2009‑2011) the president held "huge majorities" in both houses of Congress yet "did nothing" to create jobs in the United States. This is an absolute quantitative claim (implying zero jobs created) about national job creation over a specific time period. The claim’s checkability depends on data on jobs created or saved by federal actions such as the American Recovery and Reinvestment Act of 2009. The PolitiFact article provides evidence that the stimulus bill did create or save millions of jobs, contradicting the "did nothing" assertion, but the original claim lacks explicit sources, metrics, or methodological detail, making precise verification reliant on external employment statistics and economic analyses.</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Compound claim about Barack Obama’s first two years: says Democrats had “huge majorities” in Congress and Obama “did nothing” to create jobs in America. Mixed type: partly qualitative/vague (“huge majorities”) and partly absolute (100%) (“did nothing”). Geography: United States; time period: roughly 2009–2011. Basis not specified by the speaker; checkability would rely on official congressional party composition records and on legislative/economic evidence (e.g., ARRA and job-impact estimates cited in the article). Uncertainties: no definition of “huge,” no criteria for what counts as “create jobs,” and no methodology for measuring job creation or the relevant time window.</t>
         </is>
@@ -664,10 +759,15 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>Walter "Blackie" Wetzel, a former leader of the Blackfeet Nation, designed the Indian head logo for the Washington D.C. "Redskins" NFL team.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>The claim states that Walter "Blackie" Wetzel, a former leader of the Blackfeet Nation, designed the Indian head logo for the Washington D.C. "Redskins" NFL team. It is a qualitative, absolute claim with no cited source or methodology, geography is clear (U.S., Washington D.C., Blackfeet Nation) but the time period of the alleged design is not provided, limiting checkability.</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>A categorical attribution that Walter “Blackie” Wetzel, a former Blackfeet Nation leader, designed the Washington D.C. NFL team’s Indian head logo. This is a qualitative, absolute (100%) claim with no stated source or evidence. Geography is implicit (Washington, D.C., USA), but the time period of the alleged design is not provided. Key methodological details are absent, limiting immediate checkability.</t>
         </is>
@@ -676,10 +776,15 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>Walter "Blackie" Wetzel, a former leader of the Blackfeet Nation, designed the Indian head logo for the Washington D.C. "Redskins" NFL team.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>The claim states that Walter "Blackie" Wetzel, a former Blackfeet Nation leader, designed the Washington NFL team's Indian head logo. This is a qualitative, absolute claim about a historical fact. The article provides multiple sources—newspaper archives, an obituary, and interviews—that show Wetzel inspired the logo by presenting photos of Native leaders, but there is no evidence he made the actual artistic decisions. Snopes rates the claim "Mostly True," indicating the claim is partially correct but overstates Wetzel's role. The geography (U.S., Washington D.C. and Blackfeet Nation) and time period (early 1970s, with the claim made in July 2020) are clear, making the claim checkable via the cited historical records.</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>The claim is a qualitative, absolute statement that Walter 'Blackie' Wetzel (a former Blackfeet Nation leader) designed the Washington NFL team's Indian head logo. The article provides historical sourcing (obituaries, Washington Post reporting, Great Falls Tribune, NCAI records) showing Wetzel advocated for and helped the team adopt an Indian head logo by sharing photos of Native leaders; the logo debuted on helmets in 1972. However, no evidence shows he made specific artistic choices, so 'designed' overstates his role. Geography is Washington, D.C., and the Blackfeet Nation (Montana); time period is the early 1970s. Uncertainty centers on the ambiguous use of 'designed' versus inspired/facilitated.</t>
         </is>
